--- a/xlsx/排他性_intext.xlsx
+++ b/xlsx/排他性_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>排他性</t>
   </si>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%81%E6%9C%89%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>私有財產</t>
+    <t>私有财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E5%9B%A2%E8%B4%A2%E4%BA%A7</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E8%B2%A8</t>
   </si>
   <si>
-    <t>財貨</t>
+    <t>财货</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%80%E5%B0%91%E6%80%A7</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82%E7%9A%84%E4%BA%A4%E5%8F%89%E5%BD%88%E6%80%A7</t>
   </si>
   <si>
-    <t>需求的交叉彈性</t>
+    <t>需求的交叉弹性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%94%E5%8A%A9%E5%93%81</t>
   </si>
   <si>
-    <t>輔助品</t>
+    <t>辅助品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A3%E6%9B%BF%E5%93%81</t>
@@ -119,13 +119,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%93%81</t>
   </si>
   <si>
-    <t>獨立品</t>
+    <t>独立品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%80%E6%B1%82%E7%9A%84%E6%94%B6%E5%85%A5%E5%BD%88%E6%80%A7</t>
   </si>
   <si>
-    <t>需求的收入彈性</t>
+    <t>需求的收入弹性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A3%E7%AD%89%E7%89%A9%E5%93%81</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%88%E8%B2%BB%E5%93%81</t>
   </si>
   <si>
-    <t>消費品</t>
+    <t>消费品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%84%E6%9C%AC%E5%93%81</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E5%9C%98%E5%93%81</t>
   </si>
   <si>
-    <t>集團品</t>
+    <t>集团品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%AB%E6%B6%88%E5%93%81</t>
@@ -191,13 +191,10 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E4%BC%AF%E5%80%AB%E5%95%86%E5%93%81</t>
   </si>
   <si>
-    <t>韋伯倫商品</t>
+    <t>韦伯伦商品</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
-  </si>
-  <si>
-    <t>經濟學</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:Econ-stub</t>
@@ -1473,7 +1470,7 @@
         <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1499,10 +1496,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>60</v>
+      </c>
+      <c r="F33" t="s">
         <v>61</v>
-      </c>
-      <c r="F33" t="s">
-        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>4</v>
